--- a/data/trans_orig/P14A33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A33-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9EB85D-6E7A-4ADC-9968-E32FAF1D2C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFAF0DC-2736-4AB0-BD23-E5D913AFE442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D34027A1-0E73-4B54-818C-31C8B3153D58}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6BF3DF2-B60F-4694-B799-1F84595B6076}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="60">
   <si>
     <t>Población que recibe medicación o terapia por esterilidad en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -114,7 +114,7 @@
     <t>34,61%</t>
   </si>
   <si>
-    <t>70,42%</t>
+    <t>70,36%</t>
   </si>
   <si>
     <t>74,5%</t>
@@ -129,7 +129,7 @@
     <t>65,39%</t>
   </si>
   <si>
-    <t>29,58%</t>
+    <t>29,64%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -156,43 +156,37 @@
     <t>19,65%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>80,35%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>57,28%</t>
+    <t>56,23%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>42,72%</t>
+    <t>43,77%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -634,7 +628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A3B6A9-DA07-439B-AFD8-A5B499B88D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043062B2-9CE9-43BF-89D9-F10AB1FCB84C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1697,10 +1691,10 @@
         <v>3832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -1712,10 +1706,10 @@
         <v>7185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1727,13 +1721,13 @@
         <v>11016</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,7 +1783,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22585250-906C-4EC2-95A7-7B7DAD7EA11A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC6F973-9057-430D-9FDE-AD69F8BD2A44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1828,7 +1822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2650,7 +2644,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2698,7 +2692,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -2814,7 +2808,7 @@
         <v>1020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
@@ -2829,13 +2823,13 @@
         <v>1020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2859,7 @@
         <v>1020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>14</v>
@@ -2880,10 +2874,10 @@
         <v>3894</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -2942,7 +2936,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A33-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFAF0DC-2736-4AB0-BD23-E5D913AFE442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23939264-11BD-4297-8D6B-0BFF6D0FF4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6BF3DF2-B60F-4694-B799-1F84595B6076}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C3B59F91-4821-4251-B8AD-99C4E03D92E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="62">
   <si>
     <t>Población que recibe medicación o terapia por esterilidad en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -114,7 +114,7 @@
     <t>34,61%</t>
   </si>
   <si>
-    <t>70,36%</t>
+    <t>83,56%</t>
   </si>
   <si>
     <t>74,5%</t>
@@ -129,7 +129,7 @@
     <t>65,39%</t>
   </si>
   <si>
-    <t>29,64%</t>
+    <t>16,44%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -156,43 +156,49 @@
     <t>19,65%</t>
   </si>
   <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>43,77%</t>
+    <t>44,31%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por esterilidad en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población que recibe medicación o terapia por esterilidad en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -628,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043062B2-9CE9-43BF-89D9-F10AB1FCB84C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB41FDB-4001-4326-B1BB-E3B177088158}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1691,10 +1697,10 @@
         <v>3832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -1706,10 +1712,10 @@
         <v>7185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1721,13 +1727,13 @@
         <v>11016</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,7 +1789,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC6F973-9057-430D-9FDE-AD69F8BD2A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7117443-D4F3-4785-A6C8-15A6826646E5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1822,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2644,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2692,7 +2698,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -2808,7 +2814,7 @@
         <v>1020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
@@ -2823,13 +2829,13 @@
         <v>1020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2865,7 @@
         <v>1020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>14</v>
@@ -2874,10 +2880,10 @@
         <v>3894</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -2936,7 +2942,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
